--- a/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
+++ b/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
@@ -415,7 +415,7 @@
         <v>6.048E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0004420280456542969</v>
+        <v>0.01100039482116699</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -426,7 +426,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>5.472E-06</v>
+        <v>5.248E-06</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -440,10 +440,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>5.312E-06</v>
+        <v>5.472E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -454,7 +454,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.88E-06</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>256</v>
       </c>
       <c r="C7" s="1">
-        <v>4.291200000000001E-05</v>
+        <v>4.3936E-05</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -496,10 +496,10 @@
         <v>512</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000289696</v>
+        <v>0.000289824</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.0009989738464355469</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -510,10 +510,10 @@
         <v>1024</v>
       </c>
       <c r="C9" s="1">
-        <v>0.002166752</v>
+        <v>0.002175168</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.003000259399414062</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,10 +524,10 @@
         <v>2048</v>
       </c>
       <c r="C10" s="1">
-        <v>0.019104096</v>
+        <v>0.01841776</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03133201599121094</v>
+        <v>0.01900005340576172</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -538,10 +538,10 @@
         <v>4096</v>
       </c>
       <c r="C11" s="1">
-        <v>0.142368768</v>
+        <v>0.143176704</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1251740455627441</v>
+        <v>0.1309998035430908</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -552,10 +552,10 @@
         <v>8192</v>
       </c>
       <c r="C12" s="1">
-        <v>1.060700704</v>
+        <v>1.064681216</v>
       </c>
       <c r="D12" s="1">
-        <v>1.065008878707886</v>
+        <v>1.059072017669678</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
+++ b/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
@@ -412,10 +412,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>6.048E-06</v>
+        <v>6.112E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>0.01100039482116699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -426,7 +426,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>5.248E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -440,10 +440,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>5.472E-06</v>
+        <v>6.112E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0009999275207519531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -454,7 +454,7 @@
         <v>64</v>
       </c>
       <c r="C5" s="1">
-        <v>6.88E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>128</v>
       </c>
       <c r="C6" s="1">
-        <v>1.1264E-05</v>
+        <v>1.1072E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -482,7 +482,7 @@
         <v>256</v>
       </c>
       <c r="C7" s="1">
-        <v>4.3936E-05</v>
+        <v>4.3968E-05</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -496,10 +496,10 @@
         <v>512</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000289824</v>
+        <v>0.000289792</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0009989738464355469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -510,10 +510,10 @@
         <v>1024</v>
       </c>
       <c r="C9" s="1">
-        <v>0.002175168</v>
+        <v>0.00218112</v>
       </c>
       <c r="D9" s="1">
-        <v>0.003000259399414062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,10 +524,10 @@
         <v>2048</v>
       </c>
       <c r="C10" s="1">
-        <v>0.01841776</v>
+        <v>0.01718144</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01900005340576172</v>
+        <v>0.02072405815124512</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -538,10 +538,10 @@
         <v>4096</v>
       </c>
       <c r="C11" s="1">
-        <v>0.143176704</v>
+        <v>0.146927616</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1309998035430908</v>
+        <v>0.1401734352111816</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -552,10 +552,10 @@
         <v>8192</v>
       </c>
       <c r="C12" s="1">
-        <v>1.064681216</v>
+        <v>1.087473472</v>
       </c>
       <c r="D12" s="1">
-        <v>1.059072017669678</v>
+        <v>1.089988708496094</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
+++ b/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
@@ -412,10 +412,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>6.112E-06</v>
+        <v>5.12E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -429,7 +429,7 @@
         <v>6.144000000000001E-06</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -440,10 +440,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>6.112E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>5.119999870657921E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -454,10 +454,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>7.072E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>6.144000217318535E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -468,10 +468,10 @@
         <v>128</v>
       </c>
       <c r="C6" s="1">
-        <v>1.1072E-05</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0009999275207519531</v>
+        <v>1.023999974131584E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -485,7 +485,7 @@
         <v>4.3968E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4.29759994149208E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -499,7 +499,7 @@
         <v>0.000289792</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.0002867200076580048</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -510,10 +510,10 @@
         <v>1024</v>
       </c>
       <c r="C9" s="1">
-        <v>0.00218112</v>
+        <v>0.002177024</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.002168832063674927</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,10 +524,10 @@
         <v>2048</v>
       </c>
       <c r="C10" s="1">
-        <v>0.01718144</v>
+        <v>0.017173504</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02072405815124512</v>
+        <v>0.01718374443054199</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -538,10 +538,10 @@
         <v>4096</v>
       </c>
       <c r="C11" s="1">
-        <v>0.146927616</v>
+        <v>0.139192448</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1401734352111816</v>
+        <v>0.1299046325683594</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -552,10 +552,10 @@
         <v>8192</v>
       </c>
       <c r="C12" s="1">
-        <v>1.087473472</v>
+        <v>1.055603488</v>
       </c>
       <c r="D12" s="1">
-        <v>1.089988708496094</v>
+        <v>1.049806518554687</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
+++ b/CUDA/RESULTADOS/comparacion_cuda_opencl/resultados.xlsx
@@ -412,10 +412,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>5.12E-06</v>
+        <v>6.336E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>5.119999870657921E-06</v>
+        <v>4.095999989658594E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -440,7 +440,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>5.824E-06</v>
       </c>
       <c r="D4" s="1">
         <v>5.119999870657921E-06</v>
@@ -454,10 +454,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="1">
-        <v>7.072E-06</v>
+        <v>6.144000000000001E-06</v>
       </c>
       <c r="D5" s="1">
-        <v>6.144000217318535E-06</v>
+        <v>5.95200015231967E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -468,10 +468,10 @@
         <v>128</v>
       </c>
       <c r="C6" s="1">
-        <v>1.1264E-05</v>
+        <v>1.024E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>1.023999974131584E-05</v>
+        <v>1.059199962764978E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -482,10 +482,10 @@
         <v>256</v>
       </c>
       <c r="C7" s="1">
-        <v>4.3968E-05</v>
+        <v>3.7888E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>4.29759994149208E-05</v>
+        <v>3.680000081658363E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -496,10 +496,10 @@
         <v>512</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000289792</v>
+        <v>0.000253408</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0002867200076580048</v>
+        <v>0.0002528960108757019</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -510,10 +510,10 @@
         <v>1024</v>
       </c>
       <c r="C9" s="1">
-        <v>0.002177024</v>
+        <v>0.002751328</v>
       </c>
       <c r="D9" s="1">
-        <v>0.002168832063674927</v>
+        <v>0.00190230405330658</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -524,10 +524,10 @@
         <v>2048</v>
       </c>
       <c r="C10" s="1">
-        <v>0.017173504</v>
+        <v>0.015050752</v>
       </c>
       <c r="D10" s="1">
-        <v>0.01718374443054199</v>
+        <v>0.01805107116699219</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -538,10 +538,10 @@
         <v>4096</v>
       </c>
       <c r="C11" s="1">
-        <v>0.139192448</v>
+        <v>0.131726336</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1299046325683594</v>
+        <v>0.1312170257568359</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -552,10 +552,10 @@
         <v>8192</v>
       </c>
       <c r="C12" s="1">
-        <v>1.055603488</v>
+        <v>1.102284256</v>
       </c>
       <c r="D12" s="1">
-        <v>1.049806518554687</v>
+        <v>1.109758911132813</v>
       </c>
     </row>
   </sheetData>
